--- a/normSIZ.xlsx
+++ b/normSIZ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\мусор\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F2701A-9195-41B0-AAD0-7348B168F056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65855364-16F3-4D36-AC9D-218903BB4C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,17 +181,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -199,35 +199,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,7 +616,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -629,51 +632,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" ht="156" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="156" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -705,52 +708,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>4</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>6</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>7</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>9</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="15" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/normSIZ.xlsx
+++ b/normSIZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\server1c\share\Специалист по ОХРАНЕ ТРУДА\9 ОПР на раб.месте\8 ОПР и Нормы СИЗ_ЦЛАТИ\для АСУ\шаблоны отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65855364-16F3-4D36-AC9D-218903BB4C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E57145-9053-40FB-8997-9E0B6D5C1FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -219,6 +219,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -227,9 +230,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -632,128 +632,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="156" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="156" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D9" s="7">
         <v>4</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E9" s="7">
         <v>5</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F9" s="7">
         <v>6</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G9" s="7">
         <v>7</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H9" s="7">
         <v>8</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I9" s="7">
         <v>9</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J9" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/normSIZ.xlsx
+++ b/normSIZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\server1c\share\Специалист по ОХРАНЕ ТРУДА\9 ОПР на раб.месте\8 ОПР и Нормы СИЗ_ЦЛАТИ\для АСУ\шаблоны отчетов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E57145-9053-40FB-8997-9E0B6D5C1FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF572E0-A2DC-4ECE-951C-E678A43542CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>УТВЕРЖДАЮ:</t>
   </si>
@@ -97,6 +97,42 @@
   </si>
   <si>
     <t>Ответственное лицо __________________ (подпись, фамилия, инициалы)</t>
+  </si>
+  <si>
+    <t>Базовые свойства</t>
+  </si>
+  <si>
+    <t>Резиновые изделия</t>
+  </si>
+  <si>
+    <t>Скольжение</t>
+  </si>
+  <si>
+    <t>прокол обуви</t>
+  </si>
+  <si>
+    <t>Перчатки истирание</t>
+  </si>
+  <si>
+    <t>Перчатки порез</t>
+  </si>
+  <si>
+    <t>Перчатки прокол</t>
+  </si>
+  <si>
+    <t>Зимняя обувь</t>
+  </si>
+  <si>
+    <t>Зимняя одежда</t>
+  </si>
+  <si>
+    <t>Иерархия одежды</t>
+  </si>
+  <si>
+    <t>Иерархия обуви</t>
+  </si>
+  <si>
+    <t>Иерархия СИЗ рук</t>
   </si>
 </sst>
 </file>
@@ -613,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,14 +667,14 @@
     <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="H1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
@@ -647,17 +683,17 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="H3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -671,12 +707,12 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="156" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="156" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -708,7 +744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -739,8 +775,44 @@
       <c r="J9" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -752,7 +824,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>

--- a/normSIZ.xlsx
+++ b/normSIZ.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF572E0-A2DC-4ECE-951C-E678A43542CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CD9013-2EF2-4C53-B053-2A76010104FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CB29897-025C-4DD9-BD46-6B87C0C3E9C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>УТВЕРЖДАЮ:</t>
   </si>
@@ -36,112 +45,106 @@
     <t>«____» _____________ 20___г</t>
   </si>
   <si>
+    <r>
+      <t>Нормы выдачи средств индивидуальной защиты (далее — СИЗ)
+в ООО ____________________________ (</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
-      <t>Нормы выдачи средств индивидуальной защиты (далее — СИЗ) в __________________ (наименование подразделения, организации)
-в соответствии с требованиями приказов Минтруда от 29 октября 2021 г. 
-№767н «Об утверждении единых типовых норм (далее – ЕТН) выдачи СИЗ и смывающих средств»,
-№766н «</t>
+      <t>наименование подразделения, организации</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
-      <t>Об утверждении правил обеспечения работников средствами индивидуальной защиты и смывающими средствами» 
-(далее - приказ №766н)</t>
+      <t>)
+                в соответствии с требованиями приказов Минтруда от 29 октября 2021 г.
+                №767н «Об утверждении единых типовых норм (далее – ЕТН) выдачи СИЗ и смывающих средств»,
+                №766н «Об утверждении правил обеспечения работников средствами индивидуальной защиты и смывающими средствами» (далее - приказ №766н)</t>
     </r>
   </si>
   <si>
-    <t>Раздел 1. НОРМЫ ВЫДАЧИ СРЕДСТВ ИНДИВИДУАЛЬНОЙ ЗАЩИТЫ</t>
-  </si>
-  <si>
-    <t>№ пп</t>
-  </si>
-  <si>
-    <t>Наименование профессии/ должности, подразделения</t>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Структурное подразделение</t>
+  </si>
+  <si>
+    <t>Номер рабочего места и наименование профессии (должности)</t>
   </si>
   <si>
     <t>Тип СИЗ</t>
   </si>
   <si>
-    <t>Наименование СИЗ (с указанием конкретных данных о конструкции, о классе защиты, категориях эффективности и/или  эксплуатационных уровнях)</t>
-  </si>
-  <si>
-    <t>Нормы выдачи СИЗ с указанием периодичности выдачи, количества выдачи на период (штуки, пары, комплекты, мл)</t>
-  </si>
-  <si>
-    <t>Основание выдачи СИЗ (пункты ЕТН, ПОТ и иных документов)</t>
-  </si>
-  <si>
-    <t>№ опасности из Приложения №2 к ЕТН</t>
-  </si>
-  <si>
-    <t>Опасности, представляющие угрозу жизни и здоровью работников, а также факторы окружающей среды или трудового процесса, способные привести к травме или профессиональному заболеванию</t>
-  </si>
-  <si>
-    <t>№ опасного события из Приложения №2 к ЕТН</t>
-  </si>
-  <si>
-    <t>Опасные события, представляющие угрозу жизни и здоровью работников</t>
-  </si>
-  <si>
-    <t>Ответственное лицо __________________ (подпись, фамилия, инициалы)</t>
-  </si>
-  <si>
-    <t>Базовые свойства</t>
-  </si>
-  <si>
-    <t>Резиновые изделия</t>
-  </si>
-  <si>
-    <t>Скольжение</t>
-  </si>
-  <si>
-    <t>прокол обуви</t>
-  </si>
-  <si>
-    <t>Перчатки истирание</t>
-  </si>
-  <si>
-    <t>Перчатки порез</t>
-  </si>
-  <si>
-    <t>Перчатки прокол</t>
-  </si>
-  <si>
-    <t>Зимняя обувь</t>
-  </si>
-  <si>
-    <t>Зимняя одежда</t>
-  </si>
-  <si>
-    <t>Иерархия одежды</t>
-  </si>
-  <si>
-    <t>Иерархия обуви</t>
-  </si>
-  <si>
-    <t>Иерархия СИЗ рук</t>
+    <t>Наименование СИЗ (с указанием конкретных данных о конструкции, классе защиты, категориях эффективности и/или эксплуатационных уровнях)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нормы выдачи с указанием периодичности выдачи, количества на период, единицы измерения (штуки, пары, комплекты, г, мл.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основание выдачи СИЗ (пункты Единых типовых норм, правил по охране труда и иных документов) </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Ответственное лицо</t>
+  </si>
+  <si>
+    <t>(подпись)</t>
+  </si>
+  <si>
+    <t>(Ф.И.О.)</t>
+  </si>
+  <si>
+    <t>(дата)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -149,70 +152,83 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -231,41 +247,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,74 +305,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -648,199 +612,705 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FCD1D3-8E06-4D63-814E-E1AD784CAD40}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="3" customWidth="1"/>
+    <col min="9" max="256" width="9.140625" style="3"/>
+    <col min="257" max="257" width="5.28515625" style="3" customWidth="1"/>
+    <col min="258" max="258" width="19.42578125" style="3" customWidth="1"/>
+    <col min="259" max="259" width="26.28515625" style="3" customWidth="1"/>
+    <col min="260" max="260" width="27.7109375" style="3" customWidth="1"/>
+    <col min="261" max="261" width="32.5703125" style="3" customWidth="1"/>
+    <col min="262" max="262" width="31.7109375" style="3" customWidth="1"/>
+    <col min="263" max="263" width="27.28515625" style="3" customWidth="1"/>
+    <col min="264" max="264" width="18.28515625" style="3" customWidth="1"/>
+    <col min="265" max="512" width="9.140625" style="3"/>
+    <col min="513" max="513" width="5.28515625" style="3" customWidth="1"/>
+    <col min="514" max="514" width="19.42578125" style="3" customWidth="1"/>
+    <col min="515" max="515" width="26.28515625" style="3" customWidth="1"/>
+    <col min="516" max="516" width="27.7109375" style="3" customWidth="1"/>
+    <col min="517" max="517" width="32.5703125" style="3" customWidth="1"/>
+    <col min="518" max="518" width="31.7109375" style="3" customWidth="1"/>
+    <col min="519" max="519" width="27.28515625" style="3" customWidth="1"/>
+    <col min="520" max="520" width="18.28515625" style="3" customWidth="1"/>
+    <col min="521" max="768" width="9.140625" style="3"/>
+    <col min="769" max="769" width="5.28515625" style="3" customWidth="1"/>
+    <col min="770" max="770" width="19.42578125" style="3" customWidth="1"/>
+    <col min="771" max="771" width="26.28515625" style="3" customWidth="1"/>
+    <col min="772" max="772" width="27.7109375" style="3" customWidth="1"/>
+    <col min="773" max="773" width="32.5703125" style="3" customWidth="1"/>
+    <col min="774" max="774" width="31.7109375" style="3" customWidth="1"/>
+    <col min="775" max="775" width="27.28515625" style="3" customWidth="1"/>
+    <col min="776" max="776" width="18.28515625" style="3" customWidth="1"/>
+    <col min="777" max="1024" width="9.140625" style="3"/>
+    <col min="1025" max="1025" width="5.28515625" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="19.42578125" style="3" customWidth="1"/>
+    <col min="1027" max="1027" width="26.28515625" style="3" customWidth="1"/>
+    <col min="1028" max="1028" width="27.7109375" style="3" customWidth="1"/>
+    <col min="1029" max="1029" width="32.5703125" style="3" customWidth="1"/>
+    <col min="1030" max="1030" width="31.7109375" style="3" customWidth="1"/>
+    <col min="1031" max="1031" width="27.28515625" style="3" customWidth="1"/>
+    <col min="1032" max="1032" width="18.28515625" style="3" customWidth="1"/>
+    <col min="1033" max="1280" width="9.140625" style="3"/>
+    <col min="1281" max="1281" width="5.28515625" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="19.42578125" style="3" customWidth="1"/>
+    <col min="1283" max="1283" width="26.28515625" style="3" customWidth="1"/>
+    <col min="1284" max="1284" width="27.7109375" style="3" customWidth="1"/>
+    <col min="1285" max="1285" width="32.5703125" style="3" customWidth="1"/>
+    <col min="1286" max="1286" width="31.7109375" style="3" customWidth="1"/>
+    <col min="1287" max="1287" width="27.28515625" style="3" customWidth="1"/>
+    <col min="1288" max="1288" width="18.28515625" style="3" customWidth="1"/>
+    <col min="1289" max="1536" width="9.140625" style="3"/>
+    <col min="1537" max="1537" width="5.28515625" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="19.42578125" style="3" customWidth="1"/>
+    <col min="1539" max="1539" width="26.28515625" style="3" customWidth="1"/>
+    <col min="1540" max="1540" width="27.7109375" style="3" customWidth="1"/>
+    <col min="1541" max="1541" width="32.5703125" style="3" customWidth="1"/>
+    <col min="1542" max="1542" width="31.7109375" style="3" customWidth="1"/>
+    <col min="1543" max="1543" width="27.28515625" style="3" customWidth="1"/>
+    <col min="1544" max="1544" width="18.28515625" style="3" customWidth="1"/>
+    <col min="1545" max="1792" width="9.140625" style="3"/>
+    <col min="1793" max="1793" width="5.28515625" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="19.42578125" style="3" customWidth="1"/>
+    <col min="1795" max="1795" width="26.28515625" style="3" customWidth="1"/>
+    <col min="1796" max="1796" width="27.7109375" style="3" customWidth="1"/>
+    <col min="1797" max="1797" width="32.5703125" style="3" customWidth="1"/>
+    <col min="1798" max="1798" width="31.7109375" style="3" customWidth="1"/>
+    <col min="1799" max="1799" width="27.28515625" style="3" customWidth="1"/>
+    <col min="1800" max="1800" width="18.28515625" style="3" customWidth="1"/>
+    <col min="1801" max="2048" width="9.140625" style="3"/>
+    <col min="2049" max="2049" width="5.28515625" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="19.42578125" style="3" customWidth="1"/>
+    <col min="2051" max="2051" width="26.28515625" style="3" customWidth="1"/>
+    <col min="2052" max="2052" width="27.7109375" style="3" customWidth="1"/>
+    <col min="2053" max="2053" width="32.5703125" style="3" customWidth="1"/>
+    <col min="2054" max="2054" width="31.7109375" style="3" customWidth="1"/>
+    <col min="2055" max="2055" width="27.28515625" style="3" customWidth="1"/>
+    <col min="2056" max="2056" width="18.28515625" style="3" customWidth="1"/>
+    <col min="2057" max="2304" width="9.140625" style="3"/>
+    <col min="2305" max="2305" width="5.28515625" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="19.42578125" style="3" customWidth="1"/>
+    <col min="2307" max="2307" width="26.28515625" style="3" customWidth="1"/>
+    <col min="2308" max="2308" width="27.7109375" style="3" customWidth="1"/>
+    <col min="2309" max="2309" width="32.5703125" style="3" customWidth="1"/>
+    <col min="2310" max="2310" width="31.7109375" style="3" customWidth="1"/>
+    <col min="2311" max="2311" width="27.28515625" style="3" customWidth="1"/>
+    <col min="2312" max="2312" width="18.28515625" style="3" customWidth="1"/>
+    <col min="2313" max="2560" width="9.140625" style="3"/>
+    <col min="2561" max="2561" width="5.28515625" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="19.42578125" style="3" customWidth="1"/>
+    <col min="2563" max="2563" width="26.28515625" style="3" customWidth="1"/>
+    <col min="2564" max="2564" width="27.7109375" style="3" customWidth="1"/>
+    <col min="2565" max="2565" width="32.5703125" style="3" customWidth="1"/>
+    <col min="2566" max="2566" width="31.7109375" style="3" customWidth="1"/>
+    <col min="2567" max="2567" width="27.28515625" style="3" customWidth="1"/>
+    <col min="2568" max="2568" width="18.28515625" style="3" customWidth="1"/>
+    <col min="2569" max="2816" width="9.140625" style="3"/>
+    <col min="2817" max="2817" width="5.28515625" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="19.42578125" style="3" customWidth="1"/>
+    <col min="2819" max="2819" width="26.28515625" style="3" customWidth="1"/>
+    <col min="2820" max="2820" width="27.7109375" style="3" customWidth="1"/>
+    <col min="2821" max="2821" width="32.5703125" style="3" customWidth="1"/>
+    <col min="2822" max="2822" width="31.7109375" style="3" customWidth="1"/>
+    <col min="2823" max="2823" width="27.28515625" style="3" customWidth="1"/>
+    <col min="2824" max="2824" width="18.28515625" style="3" customWidth="1"/>
+    <col min="2825" max="3072" width="9.140625" style="3"/>
+    <col min="3073" max="3073" width="5.28515625" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3075" max="3075" width="26.28515625" style="3" customWidth="1"/>
+    <col min="3076" max="3076" width="27.7109375" style="3" customWidth="1"/>
+    <col min="3077" max="3077" width="32.5703125" style="3" customWidth="1"/>
+    <col min="3078" max="3078" width="31.7109375" style="3" customWidth="1"/>
+    <col min="3079" max="3079" width="27.28515625" style="3" customWidth="1"/>
+    <col min="3080" max="3080" width="18.28515625" style="3" customWidth="1"/>
+    <col min="3081" max="3328" width="9.140625" style="3"/>
+    <col min="3329" max="3329" width="5.28515625" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3331" max="3331" width="26.28515625" style="3" customWidth="1"/>
+    <col min="3332" max="3332" width="27.7109375" style="3" customWidth="1"/>
+    <col min="3333" max="3333" width="32.5703125" style="3" customWidth="1"/>
+    <col min="3334" max="3334" width="31.7109375" style="3" customWidth="1"/>
+    <col min="3335" max="3335" width="27.28515625" style="3" customWidth="1"/>
+    <col min="3336" max="3336" width="18.28515625" style="3" customWidth="1"/>
+    <col min="3337" max="3584" width="9.140625" style="3"/>
+    <col min="3585" max="3585" width="5.28515625" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3587" max="3587" width="26.28515625" style="3" customWidth="1"/>
+    <col min="3588" max="3588" width="27.7109375" style="3" customWidth="1"/>
+    <col min="3589" max="3589" width="32.5703125" style="3" customWidth="1"/>
+    <col min="3590" max="3590" width="31.7109375" style="3" customWidth="1"/>
+    <col min="3591" max="3591" width="27.28515625" style="3" customWidth="1"/>
+    <col min="3592" max="3592" width="18.28515625" style="3" customWidth="1"/>
+    <col min="3593" max="3840" width="9.140625" style="3"/>
+    <col min="3841" max="3841" width="5.28515625" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3843" max="3843" width="26.28515625" style="3" customWidth="1"/>
+    <col min="3844" max="3844" width="27.7109375" style="3" customWidth="1"/>
+    <col min="3845" max="3845" width="32.5703125" style="3" customWidth="1"/>
+    <col min="3846" max="3846" width="31.7109375" style="3" customWidth="1"/>
+    <col min="3847" max="3847" width="27.28515625" style="3" customWidth="1"/>
+    <col min="3848" max="3848" width="18.28515625" style="3" customWidth="1"/>
+    <col min="3849" max="4096" width="9.140625" style="3"/>
+    <col min="4097" max="4097" width="5.28515625" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="19.42578125" style="3" customWidth="1"/>
+    <col min="4099" max="4099" width="26.28515625" style="3" customWidth="1"/>
+    <col min="4100" max="4100" width="27.7109375" style="3" customWidth="1"/>
+    <col min="4101" max="4101" width="32.5703125" style="3" customWidth="1"/>
+    <col min="4102" max="4102" width="31.7109375" style="3" customWidth="1"/>
+    <col min="4103" max="4103" width="27.28515625" style="3" customWidth="1"/>
+    <col min="4104" max="4104" width="18.28515625" style="3" customWidth="1"/>
+    <col min="4105" max="4352" width="9.140625" style="3"/>
+    <col min="4353" max="4353" width="5.28515625" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="19.42578125" style="3" customWidth="1"/>
+    <col min="4355" max="4355" width="26.28515625" style="3" customWidth="1"/>
+    <col min="4356" max="4356" width="27.7109375" style="3" customWidth="1"/>
+    <col min="4357" max="4357" width="32.5703125" style="3" customWidth="1"/>
+    <col min="4358" max="4358" width="31.7109375" style="3" customWidth="1"/>
+    <col min="4359" max="4359" width="27.28515625" style="3" customWidth="1"/>
+    <col min="4360" max="4360" width="18.28515625" style="3" customWidth="1"/>
+    <col min="4361" max="4608" width="9.140625" style="3"/>
+    <col min="4609" max="4609" width="5.28515625" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="19.42578125" style="3" customWidth="1"/>
+    <col min="4611" max="4611" width="26.28515625" style="3" customWidth="1"/>
+    <col min="4612" max="4612" width="27.7109375" style="3" customWidth="1"/>
+    <col min="4613" max="4613" width="32.5703125" style="3" customWidth="1"/>
+    <col min="4614" max="4614" width="31.7109375" style="3" customWidth="1"/>
+    <col min="4615" max="4615" width="27.28515625" style="3" customWidth="1"/>
+    <col min="4616" max="4616" width="18.28515625" style="3" customWidth="1"/>
+    <col min="4617" max="4864" width="9.140625" style="3"/>
+    <col min="4865" max="4865" width="5.28515625" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="19.42578125" style="3" customWidth="1"/>
+    <col min="4867" max="4867" width="26.28515625" style="3" customWidth="1"/>
+    <col min="4868" max="4868" width="27.7109375" style="3" customWidth="1"/>
+    <col min="4869" max="4869" width="32.5703125" style="3" customWidth="1"/>
+    <col min="4870" max="4870" width="31.7109375" style="3" customWidth="1"/>
+    <col min="4871" max="4871" width="27.28515625" style="3" customWidth="1"/>
+    <col min="4872" max="4872" width="18.28515625" style="3" customWidth="1"/>
+    <col min="4873" max="5120" width="9.140625" style="3"/>
+    <col min="5121" max="5121" width="5.28515625" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5123" max="5123" width="26.28515625" style="3" customWidth="1"/>
+    <col min="5124" max="5124" width="27.7109375" style="3" customWidth="1"/>
+    <col min="5125" max="5125" width="32.5703125" style="3" customWidth="1"/>
+    <col min="5126" max="5126" width="31.7109375" style="3" customWidth="1"/>
+    <col min="5127" max="5127" width="27.28515625" style="3" customWidth="1"/>
+    <col min="5128" max="5128" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5129" max="5376" width="9.140625" style="3"/>
+    <col min="5377" max="5377" width="5.28515625" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5379" max="5379" width="26.28515625" style="3" customWidth="1"/>
+    <col min="5380" max="5380" width="27.7109375" style="3" customWidth="1"/>
+    <col min="5381" max="5381" width="32.5703125" style="3" customWidth="1"/>
+    <col min="5382" max="5382" width="31.7109375" style="3" customWidth="1"/>
+    <col min="5383" max="5383" width="27.28515625" style="3" customWidth="1"/>
+    <col min="5384" max="5384" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5385" max="5632" width="9.140625" style="3"/>
+    <col min="5633" max="5633" width="5.28515625" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5635" max="5635" width="26.28515625" style="3" customWidth="1"/>
+    <col min="5636" max="5636" width="27.7109375" style="3" customWidth="1"/>
+    <col min="5637" max="5637" width="32.5703125" style="3" customWidth="1"/>
+    <col min="5638" max="5638" width="31.7109375" style="3" customWidth="1"/>
+    <col min="5639" max="5639" width="27.28515625" style="3" customWidth="1"/>
+    <col min="5640" max="5640" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5641" max="5888" width="9.140625" style="3"/>
+    <col min="5889" max="5889" width="5.28515625" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5891" max="5891" width="26.28515625" style="3" customWidth="1"/>
+    <col min="5892" max="5892" width="27.7109375" style="3" customWidth="1"/>
+    <col min="5893" max="5893" width="32.5703125" style="3" customWidth="1"/>
+    <col min="5894" max="5894" width="31.7109375" style="3" customWidth="1"/>
+    <col min="5895" max="5895" width="27.28515625" style="3" customWidth="1"/>
+    <col min="5896" max="5896" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5897" max="6144" width="9.140625" style="3"/>
+    <col min="6145" max="6145" width="5.28515625" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="19.42578125" style="3" customWidth="1"/>
+    <col min="6147" max="6147" width="26.28515625" style="3" customWidth="1"/>
+    <col min="6148" max="6148" width="27.7109375" style="3" customWidth="1"/>
+    <col min="6149" max="6149" width="32.5703125" style="3" customWidth="1"/>
+    <col min="6150" max="6150" width="31.7109375" style="3" customWidth="1"/>
+    <col min="6151" max="6151" width="27.28515625" style="3" customWidth="1"/>
+    <col min="6152" max="6152" width="18.28515625" style="3" customWidth="1"/>
+    <col min="6153" max="6400" width="9.140625" style="3"/>
+    <col min="6401" max="6401" width="5.28515625" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="19.42578125" style="3" customWidth="1"/>
+    <col min="6403" max="6403" width="26.28515625" style="3" customWidth="1"/>
+    <col min="6404" max="6404" width="27.7109375" style="3" customWidth="1"/>
+    <col min="6405" max="6405" width="32.5703125" style="3" customWidth="1"/>
+    <col min="6406" max="6406" width="31.7109375" style="3" customWidth="1"/>
+    <col min="6407" max="6407" width="27.28515625" style="3" customWidth="1"/>
+    <col min="6408" max="6408" width="18.28515625" style="3" customWidth="1"/>
+    <col min="6409" max="6656" width="9.140625" style="3"/>
+    <col min="6657" max="6657" width="5.28515625" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="19.42578125" style="3" customWidth="1"/>
+    <col min="6659" max="6659" width="26.28515625" style="3" customWidth="1"/>
+    <col min="6660" max="6660" width="27.7109375" style="3" customWidth="1"/>
+    <col min="6661" max="6661" width="32.5703125" style="3" customWidth="1"/>
+    <col min="6662" max="6662" width="31.7109375" style="3" customWidth="1"/>
+    <col min="6663" max="6663" width="27.28515625" style="3" customWidth="1"/>
+    <col min="6664" max="6664" width="18.28515625" style="3" customWidth="1"/>
+    <col min="6665" max="6912" width="9.140625" style="3"/>
+    <col min="6913" max="6913" width="5.28515625" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="19.42578125" style="3" customWidth="1"/>
+    <col min="6915" max="6915" width="26.28515625" style="3" customWidth="1"/>
+    <col min="6916" max="6916" width="27.7109375" style="3" customWidth="1"/>
+    <col min="6917" max="6917" width="32.5703125" style="3" customWidth="1"/>
+    <col min="6918" max="6918" width="31.7109375" style="3" customWidth="1"/>
+    <col min="6919" max="6919" width="27.28515625" style="3" customWidth="1"/>
+    <col min="6920" max="6920" width="18.28515625" style="3" customWidth="1"/>
+    <col min="6921" max="7168" width="9.140625" style="3"/>
+    <col min="7169" max="7169" width="5.28515625" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="19.42578125" style="3" customWidth="1"/>
+    <col min="7171" max="7171" width="26.28515625" style="3" customWidth="1"/>
+    <col min="7172" max="7172" width="27.7109375" style="3" customWidth="1"/>
+    <col min="7173" max="7173" width="32.5703125" style="3" customWidth="1"/>
+    <col min="7174" max="7174" width="31.7109375" style="3" customWidth="1"/>
+    <col min="7175" max="7175" width="27.28515625" style="3" customWidth="1"/>
+    <col min="7176" max="7176" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7177" max="7424" width="9.140625" style="3"/>
+    <col min="7425" max="7425" width="5.28515625" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="19.42578125" style="3" customWidth="1"/>
+    <col min="7427" max="7427" width="26.28515625" style="3" customWidth="1"/>
+    <col min="7428" max="7428" width="27.7109375" style="3" customWidth="1"/>
+    <col min="7429" max="7429" width="32.5703125" style="3" customWidth="1"/>
+    <col min="7430" max="7430" width="31.7109375" style="3" customWidth="1"/>
+    <col min="7431" max="7431" width="27.28515625" style="3" customWidth="1"/>
+    <col min="7432" max="7432" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7433" max="7680" width="9.140625" style="3"/>
+    <col min="7681" max="7681" width="5.28515625" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="19.42578125" style="3" customWidth="1"/>
+    <col min="7683" max="7683" width="26.28515625" style="3" customWidth="1"/>
+    <col min="7684" max="7684" width="27.7109375" style="3" customWidth="1"/>
+    <col min="7685" max="7685" width="32.5703125" style="3" customWidth="1"/>
+    <col min="7686" max="7686" width="31.7109375" style="3" customWidth="1"/>
+    <col min="7687" max="7687" width="27.28515625" style="3" customWidth="1"/>
+    <col min="7688" max="7688" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7689" max="7936" width="9.140625" style="3"/>
+    <col min="7937" max="7937" width="5.28515625" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="19.42578125" style="3" customWidth="1"/>
+    <col min="7939" max="7939" width="26.28515625" style="3" customWidth="1"/>
+    <col min="7940" max="7940" width="27.7109375" style="3" customWidth="1"/>
+    <col min="7941" max="7941" width="32.5703125" style="3" customWidth="1"/>
+    <col min="7942" max="7942" width="31.7109375" style="3" customWidth="1"/>
+    <col min="7943" max="7943" width="27.28515625" style="3" customWidth="1"/>
+    <col min="7944" max="7944" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7945" max="8192" width="9.140625" style="3"/>
+    <col min="8193" max="8193" width="5.28515625" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="19.42578125" style="3" customWidth="1"/>
+    <col min="8195" max="8195" width="26.28515625" style="3" customWidth="1"/>
+    <col min="8196" max="8196" width="27.7109375" style="3" customWidth="1"/>
+    <col min="8197" max="8197" width="32.5703125" style="3" customWidth="1"/>
+    <col min="8198" max="8198" width="31.7109375" style="3" customWidth="1"/>
+    <col min="8199" max="8199" width="27.28515625" style="3" customWidth="1"/>
+    <col min="8200" max="8200" width="18.28515625" style="3" customWidth="1"/>
+    <col min="8201" max="8448" width="9.140625" style="3"/>
+    <col min="8449" max="8449" width="5.28515625" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="19.42578125" style="3" customWidth="1"/>
+    <col min="8451" max="8451" width="26.28515625" style="3" customWidth="1"/>
+    <col min="8452" max="8452" width="27.7109375" style="3" customWidth="1"/>
+    <col min="8453" max="8453" width="32.5703125" style="3" customWidth="1"/>
+    <col min="8454" max="8454" width="31.7109375" style="3" customWidth="1"/>
+    <col min="8455" max="8455" width="27.28515625" style="3" customWidth="1"/>
+    <col min="8456" max="8456" width="18.28515625" style="3" customWidth="1"/>
+    <col min="8457" max="8704" width="9.140625" style="3"/>
+    <col min="8705" max="8705" width="5.28515625" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="19.42578125" style="3" customWidth="1"/>
+    <col min="8707" max="8707" width="26.28515625" style="3" customWidth="1"/>
+    <col min="8708" max="8708" width="27.7109375" style="3" customWidth="1"/>
+    <col min="8709" max="8709" width="32.5703125" style="3" customWidth="1"/>
+    <col min="8710" max="8710" width="31.7109375" style="3" customWidth="1"/>
+    <col min="8711" max="8711" width="27.28515625" style="3" customWidth="1"/>
+    <col min="8712" max="8712" width="18.28515625" style="3" customWidth="1"/>
+    <col min="8713" max="8960" width="9.140625" style="3"/>
+    <col min="8961" max="8961" width="5.28515625" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="19.42578125" style="3" customWidth="1"/>
+    <col min="8963" max="8963" width="26.28515625" style="3" customWidth="1"/>
+    <col min="8964" max="8964" width="27.7109375" style="3" customWidth="1"/>
+    <col min="8965" max="8965" width="32.5703125" style="3" customWidth="1"/>
+    <col min="8966" max="8966" width="31.7109375" style="3" customWidth="1"/>
+    <col min="8967" max="8967" width="27.28515625" style="3" customWidth="1"/>
+    <col min="8968" max="8968" width="18.28515625" style="3" customWidth="1"/>
+    <col min="8969" max="9216" width="9.140625" style="3"/>
+    <col min="9217" max="9217" width="5.28515625" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="19.42578125" style="3" customWidth="1"/>
+    <col min="9219" max="9219" width="26.28515625" style="3" customWidth="1"/>
+    <col min="9220" max="9220" width="27.7109375" style="3" customWidth="1"/>
+    <col min="9221" max="9221" width="32.5703125" style="3" customWidth="1"/>
+    <col min="9222" max="9222" width="31.7109375" style="3" customWidth="1"/>
+    <col min="9223" max="9223" width="27.28515625" style="3" customWidth="1"/>
+    <col min="9224" max="9224" width="18.28515625" style="3" customWidth="1"/>
+    <col min="9225" max="9472" width="9.140625" style="3"/>
+    <col min="9473" max="9473" width="5.28515625" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="19.42578125" style="3" customWidth="1"/>
+    <col min="9475" max="9475" width="26.28515625" style="3" customWidth="1"/>
+    <col min="9476" max="9476" width="27.7109375" style="3" customWidth="1"/>
+    <col min="9477" max="9477" width="32.5703125" style="3" customWidth="1"/>
+    <col min="9478" max="9478" width="31.7109375" style="3" customWidth="1"/>
+    <col min="9479" max="9479" width="27.28515625" style="3" customWidth="1"/>
+    <col min="9480" max="9480" width="18.28515625" style="3" customWidth="1"/>
+    <col min="9481" max="9728" width="9.140625" style="3"/>
+    <col min="9729" max="9729" width="5.28515625" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="19.42578125" style="3" customWidth="1"/>
+    <col min="9731" max="9731" width="26.28515625" style="3" customWidth="1"/>
+    <col min="9732" max="9732" width="27.7109375" style="3" customWidth="1"/>
+    <col min="9733" max="9733" width="32.5703125" style="3" customWidth="1"/>
+    <col min="9734" max="9734" width="31.7109375" style="3" customWidth="1"/>
+    <col min="9735" max="9735" width="27.28515625" style="3" customWidth="1"/>
+    <col min="9736" max="9736" width="18.28515625" style="3" customWidth="1"/>
+    <col min="9737" max="9984" width="9.140625" style="3"/>
+    <col min="9985" max="9985" width="5.28515625" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="19.42578125" style="3" customWidth="1"/>
+    <col min="9987" max="9987" width="26.28515625" style="3" customWidth="1"/>
+    <col min="9988" max="9988" width="27.7109375" style="3" customWidth="1"/>
+    <col min="9989" max="9989" width="32.5703125" style="3" customWidth="1"/>
+    <col min="9990" max="9990" width="31.7109375" style="3" customWidth="1"/>
+    <col min="9991" max="9991" width="27.28515625" style="3" customWidth="1"/>
+    <col min="9992" max="9992" width="18.28515625" style="3" customWidth="1"/>
+    <col min="9993" max="10240" width="9.140625" style="3"/>
+    <col min="10241" max="10241" width="5.28515625" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="19.42578125" style="3" customWidth="1"/>
+    <col min="10243" max="10243" width="26.28515625" style="3" customWidth="1"/>
+    <col min="10244" max="10244" width="27.7109375" style="3" customWidth="1"/>
+    <col min="10245" max="10245" width="32.5703125" style="3" customWidth="1"/>
+    <col min="10246" max="10246" width="31.7109375" style="3" customWidth="1"/>
+    <col min="10247" max="10247" width="27.28515625" style="3" customWidth="1"/>
+    <col min="10248" max="10248" width="18.28515625" style="3" customWidth="1"/>
+    <col min="10249" max="10496" width="9.140625" style="3"/>
+    <col min="10497" max="10497" width="5.28515625" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="19.42578125" style="3" customWidth="1"/>
+    <col min="10499" max="10499" width="26.28515625" style="3" customWidth="1"/>
+    <col min="10500" max="10500" width="27.7109375" style="3" customWidth="1"/>
+    <col min="10501" max="10501" width="32.5703125" style="3" customWidth="1"/>
+    <col min="10502" max="10502" width="31.7109375" style="3" customWidth="1"/>
+    <col min="10503" max="10503" width="27.28515625" style="3" customWidth="1"/>
+    <col min="10504" max="10504" width="18.28515625" style="3" customWidth="1"/>
+    <col min="10505" max="10752" width="9.140625" style="3"/>
+    <col min="10753" max="10753" width="5.28515625" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="19.42578125" style="3" customWidth="1"/>
+    <col min="10755" max="10755" width="26.28515625" style="3" customWidth="1"/>
+    <col min="10756" max="10756" width="27.7109375" style="3" customWidth="1"/>
+    <col min="10757" max="10757" width="32.5703125" style="3" customWidth="1"/>
+    <col min="10758" max="10758" width="31.7109375" style="3" customWidth="1"/>
+    <col min="10759" max="10759" width="27.28515625" style="3" customWidth="1"/>
+    <col min="10760" max="10760" width="18.28515625" style="3" customWidth="1"/>
+    <col min="10761" max="11008" width="9.140625" style="3"/>
+    <col min="11009" max="11009" width="5.28515625" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="19.42578125" style="3" customWidth="1"/>
+    <col min="11011" max="11011" width="26.28515625" style="3" customWidth="1"/>
+    <col min="11012" max="11012" width="27.7109375" style="3" customWidth="1"/>
+    <col min="11013" max="11013" width="32.5703125" style="3" customWidth="1"/>
+    <col min="11014" max="11014" width="31.7109375" style="3" customWidth="1"/>
+    <col min="11015" max="11015" width="27.28515625" style="3" customWidth="1"/>
+    <col min="11016" max="11016" width="18.28515625" style="3" customWidth="1"/>
+    <col min="11017" max="11264" width="9.140625" style="3"/>
+    <col min="11265" max="11265" width="5.28515625" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="19.42578125" style="3" customWidth="1"/>
+    <col min="11267" max="11267" width="26.28515625" style="3" customWidth="1"/>
+    <col min="11268" max="11268" width="27.7109375" style="3" customWidth="1"/>
+    <col min="11269" max="11269" width="32.5703125" style="3" customWidth="1"/>
+    <col min="11270" max="11270" width="31.7109375" style="3" customWidth="1"/>
+    <col min="11271" max="11271" width="27.28515625" style="3" customWidth="1"/>
+    <col min="11272" max="11272" width="18.28515625" style="3" customWidth="1"/>
+    <col min="11273" max="11520" width="9.140625" style="3"/>
+    <col min="11521" max="11521" width="5.28515625" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="19.42578125" style="3" customWidth="1"/>
+    <col min="11523" max="11523" width="26.28515625" style="3" customWidth="1"/>
+    <col min="11524" max="11524" width="27.7109375" style="3" customWidth="1"/>
+    <col min="11525" max="11525" width="32.5703125" style="3" customWidth="1"/>
+    <col min="11526" max="11526" width="31.7109375" style="3" customWidth="1"/>
+    <col min="11527" max="11527" width="27.28515625" style="3" customWidth="1"/>
+    <col min="11528" max="11528" width="18.28515625" style="3" customWidth="1"/>
+    <col min="11529" max="11776" width="9.140625" style="3"/>
+    <col min="11777" max="11777" width="5.28515625" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="19.42578125" style="3" customWidth="1"/>
+    <col min="11779" max="11779" width="26.28515625" style="3" customWidth="1"/>
+    <col min="11780" max="11780" width="27.7109375" style="3" customWidth="1"/>
+    <col min="11781" max="11781" width="32.5703125" style="3" customWidth="1"/>
+    <col min="11782" max="11782" width="31.7109375" style="3" customWidth="1"/>
+    <col min="11783" max="11783" width="27.28515625" style="3" customWidth="1"/>
+    <col min="11784" max="11784" width="18.28515625" style="3" customWidth="1"/>
+    <col min="11785" max="12032" width="9.140625" style="3"/>
+    <col min="12033" max="12033" width="5.28515625" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="19.42578125" style="3" customWidth="1"/>
+    <col min="12035" max="12035" width="26.28515625" style="3" customWidth="1"/>
+    <col min="12036" max="12036" width="27.7109375" style="3" customWidth="1"/>
+    <col min="12037" max="12037" width="32.5703125" style="3" customWidth="1"/>
+    <col min="12038" max="12038" width="31.7109375" style="3" customWidth="1"/>
+    <col min="12039" max="12039" width="27.28515625" style="3" customWidth="1"/>
+    <col min="12040" max="12040" width="18.28515625" style="3" customWidth="1"/>
+    <col min="12041" max="12288" width="9.140625" style="3"/>
+    <col min="12289" max="12289" width="5.28515625" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="19.42578125" style="3" customWidth="1"/>
+    <col min="12291" max="12291" width="26.28515625" style="3" customWidth="1"/>
+    <col min="12292" max="12292" width="27.7109375" style="3" customWidth="1"/>
+    <col min="12293" max="12293" width="32.5703125" style="3" customWidth="1"/>
+    <col min="12294" max="12294" width="31.7109375" style="3" customWidth="1"/>
+    <col min="12295" max="12295" width="27.28515625" style="3" customWidth="1"/>
+    <col min="12296" max="12296" width="18.28515625" style="3" customWidth="1"/>
+    <col min="12297" max="12544" width="9.140625" style="3"/>
+    <col min="12545" max="12545" width="5.28515625" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="19.42578125" style="3" customWidth="1"/>
+    <col min="12547" max="12547" width="26.28515625" style="3" customWidth="1"/>
+    <col min="12548" max="12548" width="27.7109375" style="3" customWidth="1"/>
+    <col min="12549" max="12549" width="32.5703125" style="3" customWidth="1"/>
+    <col min="12550" max="12550" width="31.7109375" style="3" customWidth="1"/>
+    <col min="12551" max="12551" width="27.28515625" style="3" customWidth="1"/>
+    <col min="12552" max="12552" width="18.28515625" style="3" customWidth="1"/>
+    <col min="12553" max="12800" width="9.140625" style="3"/>
+    <col min="12801" max="12801" width="5.28515625" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="19.42578125" style="3" customWidth="1"/>
+    <col min="12803" max="12803" width="26.28515625" style="3" customWidth="1"/>
+    <col min="12804" max="12804" width="27.7109375" style="3" customWidth="1"/>
+    <col min="12805" max="12805" width="32.5703125" style="3" customWidth="1"/>
+    <col min="12806" max="12806" width="31.7109375" style="3" customWidth="1"/>
+    <col min="12807" max="12807" width="27.28515625" style="3" customWidth="1"/>
+    <col min="12808" max="12808" width="18.28515625" style="3" customWidth="1"/>
+    <col min="12809" max="13056" width="9.140625" style="3"/>
+    <col min="13057" max="13057" width="5.28515625" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="19.42578125" style="3" customWidth="1"/>
+    <col min="13059" max="13059" width="26.28515625" style="3" customWidth="1"/>
+    <col min="13060" max="13060" width="27.7109375" style="3" customWidth="1"/>
+    <col min="13061" max="13061" width="32.5703125" style="3" customWidth="1"/>
+    <col min="13062" max="13062" width="31.7109375" style="3" customWidth="1"/>
+    <col min="13063" max="13063" width="27.28515625" style="3" customWidth="1"/>
+    <col min="13064" max="13064" width="18.28515625" style="3" customWidth="1"/>
+    <col min="13065" max="13312" width="9.140625" style="3"/>
+    <col min="13313" max="13313" width="5.28515625" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="19.42578125" style="3" customWidth="1"/>
+    <col min="13315" max="13315" width="26.28515625" style="3" customWidth="1"/>
+    <col min="13316" max="13316" width="27.7109375" style="3" customWidth="1"/>
+    <col min="13317" max="13317" width="32.5703125" style="3" customWidth="1"/>
+    <col min="13318" max="13318" width="31.7109375" style="3" customWidth="1"/>
+    <col min="13319" max="13319" width="27.28515625" style="3" customWidth="1"/>
+    <col min="13320" max="13320" width="18.28515625" style="3" customWidth="1"/>
+    <col min="13321" max="13568" width="9.140625" style="3"/>
+    <col min="13569" max="13569" width="5.28515625" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="19.42578125" style="3" customWidth="1"/>
+    <col min="13571" max="13571" width="26.28515625" style="3" customWidth="1"/>
+    <col min="13572" max="13572" width="27.7109375" style="3" customWidth="1"/>
+    <col min="13573" max="13573" width="32.5703125" style="3" customWidth="1"/>
+    <col min="13574" max="13574" width="31.7109375" style="3" customWidth="1"/>
+    <col min="13575" max="13575" width="27.28515625" style="3" customWidth="1"/>
+    <col min="13576" max="13576" width="18.28515625" style="3" customWidth="1"/>
+    <col min="13577" max="13824" width="9.140625" style="3"/>
+    <col min="13825" max="13825" width="5.28515625" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="19.42578125" style="3" customWidth="1"/>
+    <col min="13827" max="13827" width="26.28515625" style="3" customWidth="1"/>
+    <col min="13828" max="13828" width="27.7109375" style="3" customWidth="1"/>
+    <col min="13829" max="13829" width="32.5703125" style="3" customWidth="1"/>
+    <col min="13830" max="13830" width="31.7109375" style="3" customWidth="1"/>
+    <col min="13831" max="13831" width="27.28515625" style="3" customWidth="1"/>
+    <col min="13832" max="13832" width="18.28515625" style="3" customWidth="1"/>
+    <col min="13833" max="14080" width="9.140625" style="3"/>
+    <col min="14081" max="14081" width="5.28515625" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="19.42578125" style="3" customWidth="1"/>
+    <col min="14083" max="14083" width="26.28515625" style="3" customWidth="1"/>
+    <col min="14084" max="14084" width="27.7109375" style="3" customWidth="1"/>
+    <col min="14085" max="14085" width="32.5703125" style="3" customWidth="1"/>
+    <col min="14086" max="14086" width="31.7109375" style="3" customWidth="1"/>
+    <col min="14087" max="14087" width="27.28515625" style="3" customWidth="1"/>
+    <col min="14088" max="14088" width="18.28515625" style="3" customWidth="1"/>
+    <col min="14089" max="14336" width="9.140625" style="3"/>
+    <col min="14337" max="14337" width="5.28515625" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="19.42578125" style="3" customWidth="1"/>
+    <col min="14339" max="14339" width="26.28515625" style="3" customWidth="1"/>
+    <col min="14340" max="14340" width="27.7109375" style="3" customWidth="1"/>
+    <col min="14341" max="14341" width="32.5703125" style="3" customWidth="1"/>
+    <col min="14342" max="14342" width="31.7109375" style="3" customWidth="1"/>
+    <col min="14343" max="14343" width="27.28515625" style="3" customWidth="1"/>
+    <col min="14344" max="14344" width="18.28515625" style="3" customWidth="1"/>
+    <col min="14345" max="14592" width="9.140625" style="3"/>
+    <col min="14593" max="14593" width="5.28515625" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="19.42578125" style="3" customWidth="1"/>
+    <col min="14595" max="14595" width="26.28515625" style="3" customWidth="1"/>
+    <col min="14596" max="14596" width="27.7109375" style="3" customWidth="1"/>
+    <col min="14597" max="14597" width="32.5703125" style="3" customWidth="1"/>
+    <col min="14598" max="14598" width="31.7109375" style="3" customWidth="1"/>
+    <col min="14599" max="14599" width="27.28515625" style="3" customWidth="1"/>
+    <col min="14600" max="14600" width="18.28515625" style="3" customWidth="1"/>
+    <col min="14601" max="14848" width="9.140625" style="3"/>
+    <col min="14849" max="14849" width="5.28515625" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="19.42578125" style="3" customWidth="1"/>
+    <col min="14851" max="14851" width="26.28515625" style="3" customWidth="1"/>
+    <col min="14852" max="14852" width="27.7109375" style="3" customWidth="1"/>
+    <col min="14853" max="14853" width="32.5703125" style="3" customWidth="1"/>
+    <col min="14854" max="14854" width="31.7109375" style="3" customWidth="1"/>
+    <col min="14855" max="14855" width="27.28515625" style="3" customWidth="1"/>
+    <col min="14856" max="14856" width="18.28515625" style="3" customWidth="1"/>
+    <col min="14857" max="15104" width="9.140625" style="3"/>
+    <col min="15105" max="15105" width="5.28515625" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="19.42578125" style="3" customWidth="1"/>
+    <col min="15107" max="15107" width="26.28515625" style="3" customWidth="1"/>
+    <col min="15108" max="15108" width="27.7109375" style="3" customWidth="1"/>
+    <col min="15109" max="15109" width="32.5703125" style="3" customWidth="1"/>
+    <col min="15110" max="15110" width="31.7109375" style="3" customWidth="1"/>
+    <col min="15111" max="15111" width="27.28515625" style="3" customWidth="1"/>
+    <col min="15112" max="15112" width="18.28515625" style="3" customWidth="1"/>
+    <col min="15113" max="15360" width="9.140625" style="3"/>
+    <col min="15361" max="15361" width="5.28515625" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="19.42578125" style="3" customWidth="1"/>
+    <col min="15363" max="15363" width="26.28515625" style="3" customWidth="1"/>
+    <col min="15364" max="15364" width="27.7109375" style="3" customWidth="1"/>
+    <col min="15365" max="15365" width="32.5703125" style="3" customWidth="1"/>
+    <col min="15366" max="15366" width="31.7109375" style="3" customWidth="1"/>
+    <col min="15367" max="15367" width="27.28515625" style="3" customWidth="1"/>
+    <col min="15368" max="15368" width="18.28515625" style="3" customWidth="1"/>
+    <col min="15369" max="15616" width="9.140625" style="3"/>
+    <col min="15617" max="15617" width="5.28515625" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="19.42578125" style="3" customWidth="1"/>
+    <col min="15619" max="15619" width="26.28515625" style="3" customWidth="1"/>
+    <col min="15620" max="15620" width="27.7109375" style="3" customWidth="1"/>
+    <col min="15621" max="15621" width="32.5703125" style="3" customWidth="1"/>
+    <col min="15622" max="15622" width="31.7109375" style="3" customWidth="1"/>
+    <col min="15623" max="15623" width="27.28515625" style="3" customWidth="1"/>
+    <col min="15624" max="15624" width="18.28515625" style="3" customWidth="1"/>
+    <col min="15625" max="15872" width="9.140625" style="3"/>
+    <col min="15873" max="15873" width="5.28515625" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="19.42578125" style="3" customWidth="1"/>
+    <col min="15875" max="15875" width="26.28515625" style="3" customWidth="1"/>
+    <col min="15876" max="15876" width="27.7109375" style="3" customWidth="1"/>
+    <col min="15877" max="15877" width="32.5703125" style="3" customWidth="1"/>
+    <col min="15878" max="15878" width="31.7109375" style="3" customWidth="1"/>
+    <col min="15879" max="15879" width="27.28515625" style="3" customWidth="1"/>
+    <col min="15880" max="15880" width="18.28515625" style="3" customWidth="1"/>
+    <col min="15881" max="16128" width="9.140625" style="3"/>
+    <col min="16129" max="16129" width="5.28515625" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="19.42578125" style="3" customWidth="1"/>
+    <col min="16131" max="16131" width="26.28515625" style="3" customWidth="1"/>
+    <col min="16132" max="16132" width="27.7109375" style="3" customWidth="1"/>
+    <col min="16133" max="16133" width="32.5703125" style="3" customWidth="1"/>
+    <col min="16134" max="16134" width="31.7109375" style="3" customWidth="1"/>
+    <col min="16135" max="16135" width="27.28515625" style="3" customWidth="1"/>
+    <col min="16136" max="16136" width="18.28515625" style="3" customWidth="1"/>
+    <col min="16137" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H1" s="10" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F2" s="10" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="H3" s="11" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
-    <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" ht="156" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
+    <row r="8" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>6</v>
-      </c>
-      <c r="G9" s="7">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="7">
-        <v>9</v>
-      </c>
-      <c r="J9" s="7">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N9" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O9" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P9" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A5:J5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.39374999999999999" top="1.05277777777778" bottom="0.65902777777777799" header="0.78749999999999998" footer="0.39374999999999999"/>
-  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/normSIZ.xlsx
+++ b/normSIZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CD9013-2EF2-4C53-B053-2A76010104FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DB018D-1040-490B-82F6-ACD9D2201D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CB29897-025C-4DD9-BD46-6B87C0C3E9C7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>УТВЕРЖДАЮ:</t>
   </si>
@@ -129,12 +129,48 @@
   <si>
     <t>(дата)</t>
   </si>
+  <si>
+    <t>Базовый Маркер</t>
+  </si>
+  <si>
+    <t>Резиновое изделие</t>
+  </si>
+  <si>
+    <t>Скольжение</t>
+  </si>
+  <si>
+    <t>прокол обуви</t>
+  </si>
+  <si>
+    <t>Перчатки истирание</t>
+  </si>
+  <si>
+    <t>Перчатки порез</t>
+  </si>
+  <si>
+    <t>Перчатки прокол</t>
+  </si>
+  <si>
+    <t>Зимняя обувь</t>
+  </si>
+  <si>
+    <t>Зимняя одежда</t>
+  </si>
+  <si>
+    <t>Иерархия одежды</t>
+  </si>
+  <si>
+    <t>Иерархия обуви</t>
+  </si>
+  <si>
+    <t>Иерархия СИЗ рук</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +238,20 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -279,9 +329,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -298,6 +345,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FCD1D3-8E06-4D63-814E-E1AD784CAD40}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1258,7 @@
     <col min="16137" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1266,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="2" t="s">
@@ -1217,7 +1276,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1225,78 +1284,115 @@
       <c r="I3" s="5"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="H7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1312,5 +1408,6 @@
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/normSIZ.xlsx
+++ b/normSIZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DB018D-1040-490B-82F6-ACD9D2201D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230CC2F-EC18-408B-8B50-065FAF6524D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CB29897-025C-4DD9-BD46-6B87C0C3E9C7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>УТВЕРЖДАЮ:</t>
   </si>
@@ -165,12 +165,15 @@
   <si>
     <t>Иерархия СИЗ рук</t>
   </si>
+  <si>
+    <t>Маркер типа СИЗ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +255,13 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,10 +317,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,21 +357,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{EF3C3B26-FFE0-473C-81A8-98296BF333F7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -672,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FCD1D3-8E06-4D63-814E-E1AD784CAD40}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1273,7 @@
     <col min="16137" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1281,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="2" t="s">
@@ -1276,7 +1291,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1284,24 +1299,24 @@
       <c r="I3" s="5"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1323,45 +1338,51 @@
       <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="14"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1392,7 +1413,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
